--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPM_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.9917106392915795</v>
+        <v>0.9571118980407642</v>
       </c>
       <c r="D2">
-        <v>0.3213863171200204</v>
+        <v>0.3452673588652468</v>
       </c>
       <c r="E2">
         <v>0.8516609673526685</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.039013049336045</v>
+        <v>0.9691344718981443</v>
       </c>
       <c r="D3">
-        <v>0.2988485193742965</v>
+        <v>0.3393220935692614</v>
       </c>
       <c r="E3">
         <v>0.8516609673526685</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.5023649768396252</v>
+        <v>0.3851038752975169</v>
       </c>
       <c r="D4">
-        <v>0.6154327624421572</v>
+        <v>0.7025591562145015</v>
       </c>
       <c r="E4">
         <v>0.8516609673526685</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.072607635968703</v>
+        <v>0.9894889584238222</v>
       </c>
       <c r="D5">
-        <v>0.2834985620649206</v>
+        <v>0.3294138930056869</v>
       </c>
       <c r="E5">
         <v>0.8516609673526685</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.07254021854122364</v>
+        <v>-0.08030479467229548</v>
       </c>
       <c r="D6">
-        <v>0.9421748789810314</v>
+        <v>0.9364656805152671</v>
       </c>
       <c r="E6">
         <v>0.827863498647108</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.6031247890148402</v>
+        <v>-0.8268988214588664</v>
       </c>
       <c r="D7">
-        <v>0.5464528209015453</v>
+        <v>0.414060221268185</v>
       </c>
       <c r="E7">
         <v>0.827863498647108</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.008386373401036248</v>
+        <v>-0.009763160005758185</v>
       </c>
       <c r="D8">
-        <v>0.9933090525585246</v>
+        <v>0.9922673120589833</v>
       </c>
       <c r="E8">
         <v>0.827863498647108</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.5421011517432716</v>
+        <v>-0.5712722305884617</v>
       </c>
       <c r="D9">
-        <v>0.5877727960174453</v>
+        <v>0.5715723857575004</v>
       </c>
       <c r="E9">
         <v>0.8295257691079582</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.06983736115489615</v>
+        <v>0.06660549274157744</v>
       </c>
       <c r="D10">
-        <v>0.9443258810509434</v>
+        <v>0.9472859013716244</v>
       </c>
       <c r="E10">
         <v>0.8295257691079582</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.5762510478471483</v>
+        <v>0.5541439180746444</v>
       </c>
       <c r="D11">
-        <v>0.5644712420201135</v>
+        <v>0.5831070744628244</v>
       </c>
       <c r="E11">
         <v>0.8406982913587229</v>
